--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\SEGroup4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,6 +84,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -91,7 +92,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +109,18 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -175,14 +188,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -190,10 +197,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -476,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,142 +507,163 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
-        <v>43709</v>
-      </c>
-      <c r="D5" s="7">
-        <v>43716</v>
-      </c>
-      <c r="E5" s="7">
-        <v>43723</v>
-      </c>
-      <c r="F5" s="7">
-        <v>43730</v>
-      </c>
-      <c r="G5" s="7">
-        <v>43731</v>
-      </c>
-      <c r="H5" s="7">
-        <v>43737</v>
-      </c>
-      <c r="I5" s="7">
-        <v>43744</v>
-      </c>
-      <c r="J5" s="7">
-        <v>43751</v>
-      </c>
-      <c r="K5" s="7">
-        <v>43758</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="C7" s="5">
+        <v>43739</v>
+      </c>
+      <c r="D7" s="5">
+        <v>43746</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43753</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43760</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43761</v>
+      </c>
+      <c r="H7" s="5">
+        <v>43767</v>
+      </c>
+      <c r="I7" s="5">
+        <v>43775</v>
+      </c>
+      <c r="J7" s="5">
+        <v>43782</v>
+      </c>
+      <c r="K7" s="5">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="B2:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
